--- a/app/src/problem/data/Vicdream_words_season1.xlsx
+++ b/app/src/problem/data/Vicdream_words_season1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\Vic-Dream\app\src\problem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118F67C-1475-4C60-A273-3C2EF19152F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AFCE6C-4616-44DD-B970-59D2E53A88BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{9A67666A-D55D-4504-93D0-364A944A4F7A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>John</t>
   </si>
@@ -392,10 +392,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>nan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>punctuation</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -411,7 +407,44 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>word</t>
+    <t>color</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>word1</t>
+  </si>
+  <si>
+    <t>word0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>word2</t>
+  </si>
+  <si>
+    <t>word3</t>
+  </si>
+  <si>
+    <t>skyblue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1384,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAE597A-1424-4A65-8FA1-DFAD4C10C405}">
-  <dimension ref="B1:F32"/>
+  <dimension ref="B1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1395,26 +1428,29 @@
     <col min="7" max="7" width="17.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1428,8 +1464,11 @@
       <c r="F2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1445,8 +1484,11 @@
       <c r="F3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1462,8 +1504,11 @@
       <c r="F4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1479,8 +1524,11 @@
       <c r="F5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1496,8 +1544,11 @@
       <c r="F6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1513,8 +1564,11 @@
       <c r="F7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1530,8 +1584,11 @@
       <c r="F8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -1547,8 +1604,11 @@
       <c r="F9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -1564,8 +1624,11 @@
       <c r="F10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B11" t="s">
         <v>34</v>
       </c>
@@ -1581,8 +1644,11 @@
       <c r="F11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -1598,8 +1664,11 @@
       <c r="F12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -1615,8 +1684,11 @@
       <c r="F13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -1632,8 +1704,11 @@
       <c r="F14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -1649,8 +1724,11 @@
       <c r="F15" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -1666,8 +1744,11 @@
       <c r="F16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B17" t="s">
         <v>51</v>
       </c>
@@ -1683,8 +1764,11 @@
       <c r="F17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B18" t="s">
         <v>55</v>
       </c>
@@ -1700,8 +1784,11 @@
       <c r="F18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B19" t="s">
         <v>59</v>
       </c>
@@ -1717,8 +1804,11 @@
       <c r="F19" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B20" t="s">
         <v>63</v>
       </c>
@@ -1734,8 +1824,11 @@
       <c r="F20" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B21" t="s">
         <v>67</v>
       </c>
@@ -1751,8 +1844,11 @@
       <c r="F21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B22" t="s">
         <v>71</v>
       </c>
@@ -1768,8 +1864,11 @@
       <c r="F22" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B23" t="s">
         <v>75</v>
       </c>
@@ -1785,8 +1884,11 @@
       <c r="F23" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -1802,8 +1904,11 @@
       <c r="F24" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -1819,8 +1924,11 @@
       <c r="F25" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -1836,13 +1944,16 @@
       <c r="F26" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B27" t="s">
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
         <v>90</v>
@@ -1851,10 +1962,13 @@
         <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.6">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B28" t="s">
         <v>75</v>
       </c>
@@ -1862,16 +1976,19 @@
         <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
         <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.6">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B29" t="s">
         <v>92</v>
       </c>
@@ -1887,8 +2004,11 @@
       <c r="F29" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B30" t="s">
         <v>96</v>
       </c>
@@ -1904,8 +2024,11 @@
       <c r="F30" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.6">
+      <c r="G30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B31" t="s">
         <v>100</v>
       </c>
@@ -1919,10 +2042,13 @@
         <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.6">
+        <v>116</v>
+      </c>
+      <c r="G31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B32" t="s">
         <v>104</v>
       </c>
@@ -1936,7 +2062,10 @@
         <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
